--- a/excel_data/登录模块.xlsx
+++ b/excel_data/登录模块.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,14 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://devapi2017.yitu8.cn/driver/user/userRegister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://devapi2017.yitu8.cn/driver/user/userLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
         "actionTime": "2017-06-12 15:00:00",
         "appId": 1009,
@@ -367,11 +359,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://devapi2017.yitu8.cn/driver/commons/getMobileCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://devapi2017.yitu8.cn/driver/user/userRegister</t>
+    <t>http:///driver/user/userRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http:///driver/commons/getMobileCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http:///driver/user/userLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,11 +428,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -449,20 +442,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,333 +755,333 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="33.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="67.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="23.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="52.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19" style="2" customWidth="1"/>
-    <col min="14" max="14" width="52.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="67.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="23.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="52.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="1" customWidth="1"/>
+    <col min="14" max="14" width="52.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>34</v>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="57" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>1</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>36</v>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="99.75">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>200</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>36</v>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="132" customHeight="1">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>200</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="I4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>41</v>
+      <c r="P4" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="109.5" customHeight="1">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>61</v>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="6">
         <v>200</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>40</v>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>35</v>
+      <c r="P5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="82.5" customHeight="1">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>38</v>
+      <c r="P6" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="119.25" customHeight="1">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="2" t="s">
-        <v>44</v>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>45</v>
+      <c r="P7" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="71.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1">
         <v>200</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1108,9 +1101,10 @@
     <hyperlink ref="D4" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId5"/>
 </worksheet>
 </file>
 
